--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Spon1-App.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Spon1-App.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4593233333333333</v>
+        <v>0.5021840000000001</v>
       </c>
       <c r="H2">
-        <v>1.37797</v>
+        <v>1.506552</v>
       </c>
       <c r="I2">
-        <v>0.015538272766109</v>
+        <v>0.02664368674210811</v>
       </c>
       <c r="J2">
-        <v>0.015538272766109</v>
+        <v>0.02664368674210811</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>110.8604276666667</v>
+        <v>115.2213693333333</v>
       </c>
       <c r="N2">
-        <v>332.581283</v>
+        <v>345.664108</v>
       </c>
       <c r="O2">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="P2">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="Q2">
-        <v>50.92078117061222</v>
+        <v>57.86232813729067</v>
       </c>
       <c r="R2">
-        <v>458.2870305355099</v>
+        <v>520.7609532356161</v>
       </c>
       <c r="S2">
-        <v>0.003899774026971435</v>
+        <v>0.007426684541187024</v>
       </c>
       <c r="T2">
-        <v>0.003899774026971436</v>
+        <v>0.007426684541187022</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4593233333333333</v>
+        <v>0.5021840000000001</v>
       </c>
       <c r="H3">
-        <v>1.37797</v>
+        <v>1.506552</v>
       </c>
       <c r="I3">
-        <v>0.015538272766109</v>
+        <v>0.02664368674210811</v>
       </c>
       <c r="J3">
-        <v>0.015538272766109</v>
+        <v>0.02664368674210811</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>554.525406</v>
       </c>
       <c r="O3">
-        <v>0.4184661617850055</v>
+        <v>0.44716501655323</v>
       </c>
       <c r="P3">
-        <v>0.4184661617850055</v>
+        <v>0.4471650165532299</v>
       </c>
       <c r="Q3">
-        <v>84.90215263397999</v>
+        <v>92.82459549556802</v>
       </c>
       <c r="R3">
-        <v>764.11937370582</v>
+        <v>835.4213594601121</v>
       </c>
       <c r="S3">
-        <v>0.006502241365202112</v>
+        <v>0.01191412462307385</v>
       </c>
       <c r="T3">
-        <v>0.006502241365202114</v>
+        <v>0.01191412462307385</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4593233333333333</v>
+        <v>0.5021840000000001</v>
       </c>
       <c r="H4">
-        <v>1.37797</v>
+        <v>1.506552</v>
       </c>
       <c r="I4">
-        <v>0.015538272766109</v>
+        <v>0.02664368674210811</v>
       </c>
       <c r="J4">
-        <v>0.015538272766109</v>
+        <v>0.02664368674210811</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>50.778675</v>
+        <v>60.55095666666667</v>
       </c>
       <c r="N4">
-        <v>152.336025</v>
+        <v>181.65287</v>
       </c>
       <c r="O4">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134679</v>
       </c>
       <c r="P4">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134678</v>
       </c>
       <c r="Q4">
-        <v>23.32383026325</v>
+        <v>30.40772162269334</v>
       </c>
       <c r="R4">
-        <v>209.91447236925</v>
+        <v>273.66949460424</v>
       </c>
       <c r="S4">
-        <v>0.001786258289427163</v>
+        <v>0.003902859829147365</v>
       </c>
       <c r="T4">
-        <v>0.001786258289427164</v>
+        <v>0.003902859829147364</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4593233333333333</v>
+        <v>0.5021840000000001</v>
       </c>
       <c r="H5">
-        <v>1.37797</v>
+        <v>1.506552</v>
       </c>
       <c r="I5">
-        <v>0.015538272766109</v>
+        <v>0.02664368674210811</v>
       </c>
       <c r="J5">
-        <v>0.015538272766109</v>
+        <v>0.02664368674210811</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>95.23175666666668</v>
+        <v>52.74960833333333</v>
       </c>
       <c r="N5">
-        <v>285.6952700000001</v>
+        <v>158.248825</v>
       </c>
       <c r="O5">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="P5">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="Q5">
-        <v>43.74216791132223</v>
+        <v>26.49000931126667</v>
       </c>
       <c r="R5">
-        <v>393.6795112019</v>
+        <v>238.4100838014</v>
       </c>
       <c r="S5">
-        <v>0.003349999084508288</v>
+        <v>0.003400017748699876</v>
       </c>
       <c r="T5">
-        <v>0.003349999084508289</v>
+        <v>0.003400017748699875</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>35.829457</v>
       </c>
       <c r="I6">
-        <v>0.4040203167903318</v>
+        <v>0.6336514295210738</v>
       </c>
       <c r="J6">
-        <v>0.4040203167903319</v>
+        <v>0.6336514295210738</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>110.8604276666667</v>
+        <v>115.2213693333333</v>
       </c>
       <c r="N6">
-        <v>332.581283</v>
+        <v>345.664108</v>
       </c>
       <c r="O6">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="P6">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="Q6">
-        <v>1324.022975361481</v>
+        <v>1376.106366003262</v>
       </c>
       <c r="R6">
-        <v>11916.20677825333</v>
+        <v>12384.95729402936</v>
       </c>
       <c r="S6">
-        <v>0.1014004556043237</v>
+        <v>0.176624553564049</v>
       </c>
       <c r="T6">
-        <v>0.1014004556043237</v>
+        <v>0.176624553564049</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>35.829457</v>
       </c>
       <c r="I7">
-        <v>0.4040203167903318</v>
+        <v>0.6336514295210738</v>
       </c>
       <c r="J7">
-        <v>0.4040203167903319</v>
+        <v>0.6336514295210738</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>554.525406</v>
       </c>
       <c r="O7">
-        <v>0.4184661617850055</v>
+        <v>0.44716501655323</v>
       </c>
       <c r="P7">
-        <v>0.4184661617850055</v>
+        <v>0.4471650165532299</v>
       </c>
       <c r="Q7">
         <v>2207.593798853839</v>
@@ -883,10 +883,10 @@
         <v>19868.34418968454</v>
       </c>
       <c r="S7">
-        <v>0.1690688312504122</v>
+        <v>0.2833467519707688</v>
       </c>
       <c r="T7">
-        <v>0.1690688312504122</v>
+        <v>0.2833467519707688</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>35.829457</v>
       </c>
       <c r="I8">
-        <v>0.4040203167903318</v>
+        <v>0.6336514295210738</v>
       </c>
       <c r="J8">
-        <v>0.4040203167903319</v>
+        <v>0.6336514295210738</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>50.778675</v>
+        <v>60.55095666666667</v>
       </c>
       <c r="N8">
-        <v>152.336025</v>
+        <v>181.65287</v>
       </c>
       <c r="O8">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134679</v>
       </c>
       <c r="P8">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134678</v>
       </c>
       <c r="Q8">
-        <v>606.4574508098251</v>
+        <v>723.1692993990657</v>
       </c>
       <c r="R8">
-        <v>5458.117057288426</v>
+        <v>6508.523694591591</v>
       </c>
       <c r="S8">
-        <v>0.04644561534135294</v>
+        <v>0.09281946353359384</v>
       </c>
       <c r="T8">
-        <v>0.04644561534135296</v>
+        <v>0.09281946353359381</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>35.829457</v>
       </c>
       <c r="I9">
-        <v>0.4040203167903318</v>
+        <v>0.6336514295210738</v>
       </c>
       <c r="J9">
-        <v>0.4040203167903319</v>
+        <v>0.6336514295210738</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>95.23175666666668</v>
+        <v>52.74960833333333</v>
       </c>
       <c r="N9">
-        <v>285.6952700000001</v>
+        <v>158.248825</v>
       </c>
       <c r="O9">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="P9">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="Q9">
-        <v>1137.367376840933</v>
+        <v>629.9966078486696</v>
       </c>
       <c r="R9">
-        <v>10236.30639156839</v>
+        <v>5669.969470638026</v>
       </c>
       <c r="S9">
-        <v>0.08710541459424305</v>
+        <v>0.0808606604526621</v>
       </c>
       <c r="T9">
-        <v>0.08710541459424306</v>
+        <v>0.0808606604526621</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.313537</v>
+        <v>5.487855333333333</v>
       </c>
       <c r="H10">
-        <v>12.940611</v>
+        <v>16.463566</v>
       </c>
       <c r="I10">
-        <v>0.1459209877414679</v>
+        <v>0.2911616028932436</v>
       </c>
       <c r="J10">
-        <v>0.145920987741468</v>
+        <v>0.2911616028932436</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>110.8604276666667</v>
+        <v>115.2213693333333</v>
       </c>
       <c r="N10">
-        <v>332.581283</v>
+        <v>345.664108</v>
       </c>
       <c r="O10">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="P10">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="Q10">
-        <v>478.2005565759903</v>
+        <v>632.3182062099031</v>
       </c>
       <c r="R10">
-        <v>4303.805009183913</v>
+        <v>5690.863855889128</v>
       </c>
       <c r="S10">
-        <v>0.03662304598136451</v>
+        <v>0.08115863979803703</v>
       </c>
       <c r="T10">
-        <v>0.03662304598136452</v>
+        <v>0.08115863979803702</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.313537</v>
+        <v>5.487855333333333</v>
       </c>
       <c r="H11">
-        <v>12.940611</v>
+        <v>16.463566</v>
       </c>
       <c r="I11">
-        <v>0.1459209877414679</v>
+        <v>0.2911616028932436</v>
       </c>
       <c r="J11">
-        <v>0.145920987741468</v>
+        <v>0.2911616028932436</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>554.525406</v>
       </c>
       <c r="O11">
-        <v>0.4184661617850055</v>
+        <v>0.44716501655323</v>
       </c>
       <c r="P11">
-        <v>0.4184661617850055</v>
+        <v>0.4471650165532299</v>
       </c>
       <c r="Q11">
-        <v>797.3219520736741</v>
+        <v>1014.385068928644</v>
       </c>
       <c r="R11">
-        <v>7175.897568663066</v>
+        <v>9129.465620357796</v>
       </c>
       <c r="S11">
-        <v>0.06106299566404891</v>
+        <v>0.1301972829774222</v>
       </c>
       <c r="T11">
-        <v>0.06106299566404894</v>
+        <v>0.1301972829774222</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.313537</v>
+        <v>5.487855333333333</v>
       </c>
       <c r="H12">
-        <v>12.940611</v>
+        <v>16.463566</v>
       </c>
       <c r="I12">
-        <v>0.1459209877414679</v>
+        <v>0.2911616028932436</v>
       </c>
       <c r="J12">
-        <v>0.145920987741468</v>
+        <v>0.2911616028932436</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>50.778675</v>
+        <v>60.55095666666667</v>
       </c>
       <c r="N12">
-        <v>152.336025</v>
+        <v>181.65287</v>
       </c>
       <c r="O12">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134679</v>
       </c>
       <c r="P12">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134678</v>
       </c>
       <c r="Q12">
-        <v>219.035693423475</v>
+        <v>332.2948904816022</v>
       </c>
       <c r="R12">
-        <v>1971.321240811275</v>
+        <v>2990.65401433442</v>
       </c>
       <c r="S12">
-        <v>0.01677487439421927</v>
+        <v>0.04265036346964218</v>
       </c>
       <c r="T12">
-        <v>0.01677487439421928</v>
+        <v>0.04265036346964217</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.313537</v>
+        <v>5.487855333333333</v>
       </c>
       <c r="H13">
-        <v>12.940611</v>
+        <v>16.463566</v>
       </c>
       <c r="I13">
-        <v>0.1459209877414679</v>
+        <v>0.2911616028932436</v>
       </c>
       <c r="J13">
-        <v>0.145920987741468</v>
+        <v>0.2911616028932436</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>95.23175666666668</v>
+        <v>52.74960833333333</v>
       </c>
       <c r="N13">
-        <v>285.6952700000001</v>
+        <v>158.248825</v>
       </c>
       <c r="O13">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="P13">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="Q13">
-        <v>410.7857059566634</v>
+        <v>289.4822194233278</v>
       </c>
       <c r="R13">
-        <v>3697.071353609971</v>
+        <v>2605.33997480995</v>
       </c>
       <c r="S13">
-        <v>0.03146007170183522</v>
+        <v>0.03715531664814212</v>
       </c>
       <c r="T13">
-        <v>0.03146007170183523</v>
+        <v>0.03715531664814212</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>12.844759</v>
+        <v>0.9149506666666666</v>
       </c>
       <c r="H14">
-        <v>38.534277</v>
+        <v>2.744852</v>
       </c>
       <c r="I14">
-        <v>0.4345204227020911</v>
+        <v>0.04854328084357454</v>
       </c>
       <c r="J14">
-        <v>0.4345204227020912</v>
+        <v>0.04854328084357455</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>110.8604276666667</v>
+        <v>115.2213693333333</v>
       </c>
       <c r="N14">
-        <v>332.581283</v>
+        <v>345.664108</v>
       </c>
       <c r="O14">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="P14">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="Q14">
-        <v>1423.975476015266</v>
+        <v>105.4218686857795</v>
       </c>
       <c r="R14">
-        <v>12815.77928413739</v>
+        <v>948.7968181720159</v>
       </c>
       <c r="S14">
-        <v>0.1090553296463078</v>
+        <v>0.01353099655122842</v>
       </c>
       <c r="T14">
-        <v>0.1090553296463078</v>
+        <v>0.01353099655122842</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>12.844759</v>
+        <v>0.9149506666666666</v>
       </c>
       <c r="H15">
-        <v>38.534277</v>
+        <v>2.744852</v>
       </c>
       <c r="I15">
-        <v>0.4345204227020911</v>
+        <v>0.04854328084357454</v>
       </c>
       <c r="J15">
-        <v>0.4345204227020912</v>
+        <v>0.04854328084357455</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>554.525406</v>
       </c>
       <c r="O15">
-        <v>0.4184661617850055</v>
+        <v>0.44716501655323</v>
       </c>
       <c r="P15">
-        <v>0.4184661617850055</v>
+        <v>0.4471650165532299</v>
       </c>
       <c r="Q15">
-        <v>2374.248399815718</v>
+        <v>169.121129967768</v>
       </c>
       <c r="R15">
-        <v>21368.23559834146</v>
+        <v>1522.090169709912</v>
       </c>
       <c r="S15">
-        <v>0.1818320935053422</v>
+        <v>0.0217068569819651</v>
       </c>
       <c r="T15">
-        <v>0.1818320935053422</v>
+        <v>0.0217068569819651</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>12.844759</v>
+        <v>0.9149506666666666</v>
       </c>
       <c r="H16">
-        <v>38.534277</v>
+        <v>2.744852</v>
       </c>
       <c r="I16">
-        <v>0.4345204227020911</v>
+        <v>0.04854328084357454</v>
       </c>
       <c r="J16">
-        <v>0.4345204227020912</v>
+        <v>0.04854328084357455</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>50.778675</v>
+        <v>60.55095666666667</v>
       </c>
       <c r="N16">
-        <v>152.336025</v>
+        <v>181.65287</v>
       </c>
       <c r="O16">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134679</v>
       </c>
       <c r="P16">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134678</v>
       </c>
       <c r="Q16">
-        <v>652.2398427143251</v>
+        <v>55.40113816947111</v>
       </c>
       <c r="R16">
-        <v>5870.158584428926</v>
+        <v>498.61024352524</v>
       </c>
       <c r="S16">
-        <v>0.04995186522081939</v>
+        <v>0.007110788481084489</v>
       </c>
       <c r="T16">
-        <v>0.0499518652208194</v>
+        <v>0.007110788481084489</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>12.844759</v>
+        <v>0.9149506666666666</v>
       </c>
       <c r="H17">
-        <v>38.534277</v>
+        <v>2.744852</v>
       </c>
       <c r="I17">
-        <v>0.4345204227020911</v>
+        <v>0.04854328084357454</v>
       </c>
       <c r="J17">
-        <v>0.4345204227020912</v>
+        <v>0.04854328084357455</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>95.23175666666668</v>
+        <v>52.74960833333333</v>
       </c>
       <c r="N17">
-        <v>285.6952700000001</v>
+        <v>158.248825</v>
       </c>
       <c r="O17">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="P17">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="Q17">
-        <v>1223.228963529977</v>
+        <v>48.26328931098889</v>
       </c>
       <c r="R17">
-        <v>11009.06067176979</v>
+        <v>434.3696037989</v>
       </c>
       <c r="S17">
-        <v>0.09368113432962169</v>
+        <v>0.006194638829296531</v>
       </c>
       <c r="T17">
-        <v>0.0936811343296217</v>
+        <v>0.006194638829296532</v>
       </c>
     </row>
   </sheetData>
